--- a/excelData/clinkerFactory.xlsx
+++ b/excelData/clinkerFactory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73DDAC6-DEEE-2943-988D-960FC51970CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C85E95-8544-5448-89AD-8496D09FEA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
   </bookViews>
@@ -125,12 +125,6 @@
     <t>ChainSheet</t>
   </si>
   <si>
-    <t>OriginChain</t>
-  </si>
-  <si>
-    <t>OriginProcess</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Product_IO_of_Destination</t>
   </si>
   <si>
-    <t>DestinationChain</t>
-  </si>
-  <si>
     <t>kiln</t>
   </si>
   <si>
@@ -204,6 +195,15 @@
   </si>
   <si>
     <t>Clinker Chain</t>
+  </si>
+  <si>
+    <t>Origin_Chain</t>
+  </si>
+  <si>
+    <t>Origin_Unit</t>
+  </si>
+  <si>
+    <t>Destination_Chain</t>
   </si>
 </sst>
 </file>
@@ -609,19 +609,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,10 +652,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,30 +683,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -783,35 +783,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -836,21 +836,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -876,13 +876,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,21 +890,21 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
